--- a/medicine/Enfance/Alex_Cousseau/Alex_Cousseau.xlsx
+++ b/medicine/Enfance/Alex_Cousseau/Alex_Cousseau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alex Cousseau, né en 1974 à Brest, est un auteur de littérature jeunesse français. Il vit dans le Finistère.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alex Cousseau, né à Brest[1], a suivi des études d'arts plastiques et d'audiovisuel. Depuis le début des années 2000, il écrit des romans, pour enfants, adolescents et adultes, et des albums jeunesse illustrés par différents illustrateurs. Il a différents éditeurs, les éditions du Rouergue, les éditions du Seuil ou les éditions Sarbacane.
-Son premier album, Les Trois loups, est publié en 2002[1] à L’École des loisirs.
-Son roman jeunesse Les trois vies d'Antoine Anacharsis[2],[3] est publié en 2012. Corinne Bouquin, dans son avis critique dans La Revue des livres pour enfants, écrit : « Ce récit d'aventures qui se passe au XIXe siècle, lance le héros sur une chasse au trésor, des pirates, avec des rencontres étonnantes. Et l'on traverse tout ce siècle à la recherche de ce trésor, de Madagascar en Haïti, à New York, en Afrique pour revenir à Nosy Boraha[4]. »
-Grizzli et moi, autre roman jeunesse, est publié en 2017. Pour Michel Abescat, dans son avis critique de Télérama : « Quelle poésie dans ce livre tout en douceur, écrit au bonheur des mots ! (...) Douze contes, parfois à la limite de l’absurde, où les mœurs félines sont finement observées, douze petits bijoux sans un mot de trop[5]. »
-En 2018, il reçoit le prestigieux prix international, le Prix BolognaRagazzi[6], dans la catégorie Fiction, à la Foire du livre de jeunesse de Bologne pour L'Oiseau blanc qu'il a écrit, et illustré par Charles Dutertre. L'album est inspiré de la vie de Charles Nungesser qui, en 1927, a tenté la traversée entre Paris et New York sans escale[7].
-Il a écrit plusieurs romans aux éditions du Rouergue qui se lisent de façon recto-verso, avec deux histoires en écho, particularité de la collection « Boomerang ». Pour son ouvrage recto-verso Par la forêt / Par le lac, publié en 2019, Michel Abescat, dans son avis critique de Télérama, écrit : « Les mots sont simples, pleins de lumière. La poésie surgit avec délicatesse de l’espace que le texte ménage à l’imagination du lecteur[8]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex Cousseau, né à Brest, a suivi des études d'arts plastiques et d'audiovisuel. Depuis le début des années 2000, il écrit des romans, pour enfants, adolescents et adultes, et des albums jeunesse illustrés par différents illustrateurs. Il a différents éditeurs, les éditions du Rouergue, les éditions du Seuil ou les éditions Sarbacane.
+Son premier album, Les Trois loups, est publié en 2002 à L’École des loisirs.
+Son roman jeunesse Les trois vies d'Antoine Anacharsis, est publié en 2012. Corinne Bouquin, dans son avis critique dans La Revue des livres pour enfants, écrit : « Ce récit d'aventures qui se passe au XIXe siècle, lance le héros sur une chasse au trésor, des pirates, avec des rencontres étonnantes. Et l'on traverse tout ce siècle à la recherche de ce trésor, de Madagascar en Haïti, à New York, en Afrique pour revenir à Nosy Boraha. »
+Grizzli et moi, autre roman jeunesse, est publié en 2017. Pour Michel Abescat, dans son avis critique de Télérama : « Quelle poésie dans ce livre tout en douceur, écrit au bonheur des mots ! (...) Douze contes, parfois à la limite de l’absurde, où les mœurs félines sont finement observées, douze petits bijoux sans un mot de trop. »
+En 2018, il reçoit le prestigieux prix international, le Prix BolognaRagazzi, dans la catégorie Fiction, à la Foire du livre de jeunesse de Bologne pour L'Oiseau blanc qu'il a écrit, et illustré par Charles Dutertre. L'album est inspiré de la vie de Charles Nungesser qui, en 1927, a tenté la traversée entre Paris et New York sans escale.
+Il a écrit plusieurs romans aux éditions du Rouergue qui se lisent de façon recto-verso, avec deux histoires en écho, particularité de la collection « Boomerang ». Pour son ouvrage recto-verso Par la forêt / Par le lac, publié en 2019, Michel Abescat, dans son avis critique de Télérama, écrit : « Les mots sont simples, pleins de lumière. La poésie surgit avec délicatesse de l’espace que le texte ménage à l’imagination du lecteur. »
 </t>
         </is>
       </c>
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
- Poisson-lune, Rouergue, 2004
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Poisson-lune, Rouergue, 2004
 Tout le monde s'embrasse sauf moi, illustrations de Nathalie Choux, Rouergue, 2004
  Des cerises plein les poches, illustrations de Mariona Cabassa, Rouergue, 2004
  Le cri du phasme, Rouergue, 2005
@@ -562,35 +581,69 @@
  Mon corps est un œil, Rouergue, 2007
 Prune et Rigoberto, illustrations de Natacha Sicaud, Rouergue, 2007
 L'ami l'iguane, illustrations d'Anne-Lise Boutin, Rouergue, 2008
-Je suis le chapeau[9], coll. « DoAdo », Rouergue, 2009
+Je suis le chapeau, coll. « DoAdo », Rouergue, 2009
  Cabanes, résidence avec Ludovic Degroote, Nuit myrtide éd., 2009
  Ma première nuit à la belle étoile, Rouergue, 2010
  Requin-baleine ou Comment naissent les petits frères, les petites sœurs et les étoiles filantes, illustration d'Aurélia Grandin, Oskar, 2011
  Le dur métier de loup, roman collectif avec Olivier de Solminihac, Marie Desplechin, Christian Oster et Kéthévane Davrichewy, l'École des loisirs, 2011
-Les trois vies d'Antoine Anacharsis[2],[3],[4], coll. « DoAdo », Rouergue, 2012
+Les trois vies d'Antoine Anacharsis coll. « DoAdo », Rouergue, 2012
 Mon frère est un cheval / Mon cheval s'appelle orage, Rouergue, coll. « Boomerang », 2012
  L'attrape-fantôme, Rouergue, 2012
- Totem / Je t'aime[10], Rouergue, coll. « Boomerang », 2013
+ Totem / Je t'aime, Rouergue, coll. « Boomerang », 2013
  L'explosion du petit pois, Rouergue, 2013
  Un lézard amoureux, Rouergue, 2013
  En compagnie des ours : douze histoires en attendant le printemps, Rouergue, 2014
 Une Indienne dans la nuit, écrit avec Valie Le Gall, illustrations de Loïc Froissart, Rouergue, 2014
 Le pirate et l'acrobate, écrit avec Valie Le Gall, illustrations de Max de Radiguès, Rouergue, 2015
  Le roi des fous, Valie Le Gall / La licorne invisible, Alex Cousseau, illustrations Marta Orzel, Rouergue, 2015
-Le fils de l'ombre et de l'oiseau[11], Rouergue, coll. « DoAdo », 2016
+Le fils de l'ombre et de l'oiseau, Rouergue, coll. « DoAdo », 2016
 Je suis née sous l'eau / Je suis né sous la terre, écrit avec Valie Le Gall, Rouergue, coll. « Boomerang », 2016
 Paco le rêveur, avec Olivier Latyk, Belin éducation, 2017
-Grizzli et moi : les jours heureux d'un chat et d'une chaussette[5], Rouergue, 2017
+Grizzli et moi : les jours heureux d'un chat et d'une chaussette, Rouergue, 2017
 Série Parmi les vivants, écrit avec Valie Le Gall, Rouergue, coll. « Épik »
 Abel, 2016
 Louise, 2017
  NIHIL : le tourbillon du temps, Rouergue, 2018
-Par la forêt / Par le lac[8], Rouergue, coll. « Boomerang », 2019
+Par la forêt / Par le lac, Rouergue, coll. « Boomerang », 2019
 Série King et Kong, illustrations de Clémence Paldacci, Rouergue
-King et Kong[12], 2020
-King et Kong se font livrer un cousin[13],[14], 2021
-Albums illustrés
-Les trois loups, illustrations de Philippe-Henri Turin, l'École des loisirs, 2002
+King et Kong, 2020
+King et Kong se font livrer un cousin 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alex_Cousseau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alex_Cousseau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les trois loups, illustrations de Philippe-Henri Turin, l'École des loisirs, 2002
  Je veux être une maman tout de suite !, illustrations de Philippe-Henri Turin, l'École des loisirs, 2002
 Quichute et Sang-Chaud ou Comment endormir les enfants en 5 leçons, illustrations de Philippe-Henri Turin, l'École des loisirs, 2003
 On veut voler mon trésor !, illustrations de Philippe-Henri Turin, l'École des loisirs, 2004
@@ -611,7 +664,7 @@
 Coline, illustrations de Chiaki Miyamoto, Sarbacane, 2010
 Alba Blabla &amp; moi, illustrations de Anne-Lise Boutin, Rouergue, 2011
 Lousse, Noche et Bum, illustrations de Candice Hayat, Autrement Jeunesse, 2011
-Mon grand-père devenu ours[15],[16], illustrations de Nathalie Choux, Sarbacane, 2012
+Mon grand-père devenu ours illustrations de Nathalie Choux, Sarbacane, 2012
 Les frères Moustaches, illustrations de Charles Dutertre, Rouergue, 2013
 Série  Louison Mignon, illustrations de Charles Dutertre, Rouergue
  Louison Mignon cherche son chiot, 2015
@@ -620,7 +673,7 @@
  Louison Mignon fait des confitures avec le shérif, 2016
 Le roi, la graine et leurs enfants, illustrations de Éva Offredo, Sarbacane, 2016
  Le chat qui est chien, illustrations de Charles Dutertre, Rouergue, 2016
-L'Oiseau blanc[7], illustrations de Charles Dutertre, Rouergue, 2017
+L'Oiseau blanc, illustrations de Charles Dutertre, Rouergue, 2017
 Aristide Aristote : l'oiseau est ma boussole, illustrations de Éva Offredo, À pas de loups, 2017
  Ma cousine et moi, on a refait le monde, illustrations de Nathalie Choux, Sarbacane, 2017
 La brigade du silence,illustrations de Charles Dutertre, Rouergue, 2018
@@ -632,52 +685,54 @@
 Murdo, illustrations de Éva Offredo, Seuil jeunesse, 2020
 Mon coeur est un petit moteur qui démarre avec de l'amour, illustrations de Charles Dutertre, Rouergue, 2021
  Petites nouvelles de la révolution, illustrations de Henri Meunier, Sarbacane, 2021
- Slip[17],[18], illustrations de Janik Coat, Les Fourmis rouges, 2021
+ Slip illustrations de Janik Coat, Les Fourmis rouges, 2021
 La brigade du buzz, illustrations de Charles Dutertre, Rouergue, 2021
  Les frères Zzli, illustrations de Anne-Lise Boutin, Les Fourmis rouges, 2022
 Josette au bout de l'eau , illustrations de Csil , A pas de loup , 2022
 Série Bonaventure et compagnie, illustrations de Charles Dutertre, collection Dacodac, Rouergue
 En concert sous les étoiles !, 2023
-Iggy[19], illustrations de Janik Coat, Les Fourmis rouges, 2023
+Iggy, illustrations de Janik Coat, Les Fourmis rouges, 2023
 Murdo, une enquête timbrée , illustrations de Eva Offredo , seuil jeunesse , 2023
-Piccadilly Circus[20], illustrations de Gaya Wisniewski, Éditions Memo, 2023</t>
+Piccadilly Circus, illustrations de Gaya Wisniewski, Éditions Memo, 2023</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alex_Cousseau</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alex_Cousseau</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2011 :  Prix jeunesse des libraires du Québec[21] pour Charles à l'école des dragons d'Alex Cousseau, illustrations de Philippe-Henri Turin
-2012 : Meilleur livre, dans la catégorie Jeunesse, des Meilleurs livres de l'année du magazine Lire[22] pour Les trois vies d'Antoine Anacharsis
-2013 :  Prix Libbylit (de l'IBBY)[23] pour Les trois vies d'Antoine Anacharsis
-2014 : Prix Livrentête[24] pour Mon frère est un cheval / Mon cheval s'appelle orage de Alex Cousseau
-2017 :  Chevalier de l'ordre des Arts et des Lettres[25]
-2018 :  Prix BolognaRagazzi catégorie Fiction[6], Foire du livre de jeunesse de Bologne  pour L'Oiseau blanc d’Alex Cousseau, illustrations de Charles Dutertre
-2021 :  Prix Premio Andersen et prix Strega enfants pour Murdo, le livre des rêves impossibles d'Alex Cousseau, illustrations d'Eva Offredo[26],[27]
-2022 : Prix Ficelle[28] pour Slip, illustrations de Janik Coat</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2011 :  Prix jeunesse des libraires du Québec pour Charles à l'école des dragons d'Alex Cousseau, illustrations de Philippe-Henri Turin
+2012 : Meilleur livre, dans la catégorie Jeunesse, des Meilleurs livres de l'année du magazine Lire pour Les trois vies d'Antoine Anacharsis
+2013 :  Prix Libbylit (de l'IBBY) pour Les trois vies d'Antoine Anacharsis
+2014 : Prix Livrentête pour Mon frère est un cheval / Mon cheval s'appelle orage de Alex Cousseau
+2017 :  Chevalier de l'ordre des Arts et des Lettres
+2018 :  Prix BolognaRagazzi catégorie Fiction, Foire du livre de jeunesse de Bologne  pour L'Oiseau blanc d’Alex Cousseau, illustrations de Charles Dutertre
+2021 :  Prix Premio Andersen et prix Strega enfants pour Murdo, le livre des rêves impossibles d'Alex Cousseau, illustrations d'Eva Offredo,
+2022 : Prix Ficelle pour Slip, illustrations de Janik Coat</t>
         </is>
       </c>
     </row>
